--- a/Client/Assets/Excels/CardResultInfo.xlsx
+++ b/Client/Assets/Excels/CardResultInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\game\unity_try\Forgetful Cupid\test\ForgetfulCupid\Client\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F10615F-BF5A-4A2E-8EF2-AE63347B1419}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3864E5DB-AEDF-48F2-8C2D-F0BA9F40FDDA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14655" windowHeight="7260" xr2:uid="{C11773D7-1DB1-4317-AA90-602F99C2BA99}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>左边卡片ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,6 +44,10 @@
   </si>
   <si>
     <t>特殊关卡(levelID)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -408,79 +412,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6903AA5B-5230-4BFA-9C34-0009394C5AF9}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>101</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>103</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>10</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
       <c r="E2">
         <v>1</v>
       </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
         <v>101</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>104</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>10</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
         <v>102</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>105</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>20</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
     </row>

--- a/Client/Assets/Excels/CardResultInfo.xlsx
+++ b/Client/Assets/Excels/CardResultInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\game\unity_try\Forgetful Cupid\test\ForgetfulCupid\Client\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3864E5DB-AEDF-48F2-8C2D-F0BA9F40FDDA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9868CACA-BCD2-4CB1-86B0-9E36FEE30351}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14655" windowHeight="7260" xr2:uid="{C11773D7-1DB1-4317-AA90-602F99C2BA99}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>左边卡片ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,6 +48,22 @@
   </si>
   <si>
     <t>关卡编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算语句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算语句1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编不下去了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>想不出来了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -412,15 +428,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6903AA5B-5230-4BFA-9C34-0009394C5AF9}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -434,13 +450,16 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -453,14 +472,17 @@
       <c r="D2">
         <v>10</v>
       </c>
-      <c r="E2">
-        <v>1</v>
+      <c r="E2" t="s">
+        <v>7</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -473,14 +495,17 @@
       <c r="D3">
         <v>10</v>
       </c>
-      <c r="E3">
-        <v>1</v>
+      <c r="E3" t="s">
+        <v>8</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
@@ -493,10 +518,13 @@
       <c r="D4">
         <v>20</v>
       </c>
-      <c r="E4">
-        <v>1</v>
+      <c r="E4" t="s">
+        <v>9</v>
       </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <v>1</v>
       </c>
     </row>

--- a/Client/Assets/Excels/CardResultInfo.xlsx
+++ b/Client/Assets/Excels/CardResultInfo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\game\unity_try\Forgetful Cupid\test\ForgetfulCupid\Client\Assets\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ForgetfulCupid\ForgetfulCupid\Client\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9868CACA-BCD2-4CB1-86B0-9E36FEE30351}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC169BC2-EA94-4433-B184-9CC5ADCDC6C4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14655" windowHeight="7260" xr2:uid="{C11773D7-1DB1-4317-AA90-602F99C2BA99}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>左边卡片ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,23 +55,62 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>结算语句1</t>
+    <t>1_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>编不下去了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>想不出来了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>程敏敏终于知道了表白墙上的神秘男生的真面目，-似乎听那个闷骚学霸提起过？</t>
+  </si>
+  <si>
+    <t>朋友鼓励自己试试，没想到她居然答应了…-张志军在兴奋之余，感到有些不知所措。</t>
+  </si>
+  <si>
+    <t>张志军装出一副刚准时抵达图书馆门口的样子，-程敏敏没有拆穿，反而觉得他有点可爱。</t>
+  </si>
+  <si>
+    <t>度过了充满不安和煎熬的30分钟，-在看到那个熟悉身影匆忙向自己跑来的时候，张志军居然有点想哭。</t>
+  </si>
+  <si>
+    <t>这么一说，好像在化学红榜上见过这个名字…-程敏敏想着，年级第三给我补习，这次化学总该有救了！</t>
+  </si>
+  <si>
+    <t>程敏敏给自己讲题的认真的样子真好看…-张志军瞟了一眼后眼神迅速回归试卷，试图平复自己的心跳。</t>
+  </si>
+  <si>
+    <t>虽然张志军想请客，但程敏敏坚持要AA制。-程敏敏幸福地啃了一嘴油，张志军很贴心地递上纸巾。</t>
+  </si>
+  <si>
+    <t>化解了自己没钱的窘境，还请吃自己最喜欢的KFB，程敏敏感到十分满足。-下周一再去隔壁班把钱还给他吧。</t>
+  </si>
+  <si>
+    <t>这句没话找话的开头让程敏敏产生了一种微妙的预感…-她只能随意地搪塞过去。</t>
+  </si>
+  <si>
+    <t>程敏敏很感谢张志军让她发现了一个复习功课的好去处，-有人气却又很安静…</t>
+  </si>
+  <si>
+    <t>他真的很害羞呢…程敏敏想，-会把害羞的事情说出来，他也够楞的。</t>
+  </si>
+  <si>
+    <t>能有一段值得怀念的快乐回忆，张志军已经很知足了。-他怀着结束一切的平淡心情发出了这条信息，-却收获了意想不到的回应…</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,13 +126,38 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -110,8 +174,22 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -428,103 +506,340 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6903AA5B-5230-4BFA-9C34-0009394C5AF9}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="12.25" customWidth="1"/>
+    <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="73.625" customWidth="1"/>
+    <col min="7" max="7" width="15.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1">
         <v>101</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>103</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>101</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>104</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1">
+        <v>102</v>
+      </c>
+      <c r="C4" s="2">
+        <v>105</v>
+      </c>
+      <c r="D4" s="3">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>102</v>
-      </c>
-      <c r="C4">
-        <v>105</v>
-      </c>
-      <c r="D4">
+      <c r="B5" s="5">
+        <v>107</v>
+      </c>
+      <c r="C5" s="2">
+        <v>115</v>
+      </c>
+      <c r="D5" s="3">
+        <v>15</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5">
+        <v>107</v>
+      </c>
+      <c r="C6" s="2">
+        <v>116</v>
+      </c>
+      <c r="D6" s="3">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="5">
+        <v>112</v>
+      </c>
+      <c r="C7" s="2">
+        <v>118</v>
+      </c>
+      <c r="D7" s="3">
+        <v>30</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="5">
+        <v>109</v>
+      </c>
+      <c r="C8" s="2">
+        <v>119</v>
+      </c>
+      <c r="D8" s="3">
+        <v>40</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <v>113</v>
+      </c>
+      <c r="C9" s="2">
+        <v>121</v>
+      </c>
+      <c r="D9" s="3">
+        <v>20</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5">
+        <v>113</v>
+      </c>
+      <c r="C10" s="2">
+        <v>122</v>
+      </c>
+      <c r="D10" s="3">
+        <v>25</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
+      <c r="B11" s="1">
+        <v>123</v>
+      </c>
+      <c r="C11" s="2">
+        <v>128</v>
+      </c>
+      <c r="D11" s="3">
+        <v>15</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1">
+        <v>123</v>
+      </c>
+      <c r="C12" s="2">
+        <v>129</v>
+      </c>
+      <c r="D12" s="3">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1">
+        <v>125</v>
+      </c>
+      <c r="C13" s="2">
+        <v>128</v>
+      </c>
+      <c r="D13" s="3">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1">
+        <v>126</v>
+      </c>
+      <c r="C14" s="2">
+        <v>130</v>
+      </c>
+      <c r="D14" s="3">
+        <v>40</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
         <v>1</v>
       </c>
     </row>

--- a/Client/Assets/Excels/CardResultInfo.xlsx
+++ b/Client/Assets/Excels/CardResultInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ForgetfulCupid\ForgetfulCupid\Client\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC169BC2-EA94-4433-B184-9CC5ADCDC6C4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E43D9B-8370-4BC6-8940-01036F4A52BB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14655" windowHeight="7260" xr2:uid="{C11773D7-1DB1-4317-AA90-602F99C2BA99}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>左边卡片ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,52 +55,56 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1_1</t>
+    <t>程敏敏终于知道了表白墙上的神秘男生的真面目，-似乎听那个闷骚学霸提起过？</t>
+  </si>
+  <si>
+    <t>这么一说，好像在化学红榜上见过这个名字…-程敏敏想着，年级第三给我补习，这次化学总该有救了！</t>
+  </si>
+  <si>
+    <t>化解了自己没钱的窘境，还请吃自己最喜欢的KFB，程敏敏感到十分满足。-下周一再去隔壁班把钱还给他吧。</t>
+  </si>
+  <si>
+    <t>这句没话找话的开头让程敏敏产生了一种微妙的预感…-她只能随意地搪塞过去。</t>
+  </si>
+  <si>
+    <t>他真的很害羞呢…程敏敏想，-会把害羞的事情说出来，他也够楞的。</t>
+  </si>
+  <si>
+    <t>朋友鼓励自己试试，没想到她居然答应了…-张智君在兴奋之余，感到有些不知所措。</t>
+  </si>
+  <si>
+    <t>张智君装出一副刚准时抵达图书馆门口的样子，-程敏敏没有拆穿，反而觉得他有点可爱。</t>
+  </si>
+  <si>
+    <t>度过了充满不安和煎熬的30分钟，-在看到那个熟悉身影匆忙向自己跑来的时候，张智君居然有点想哭。</t>
+  </si>
+  <si>
+    <t>程敏敏给自己讲题的认真的样子真好看…-张智君瞟了一眼后眼神迅速回归试卷，试图平复自己的心跳。</t>
+  </si>
+  <si>
+    <t>虽然张智君想请客，但程敏敏坚持要AA制。-程敏敏幸福地啃了一嘴油，张智君很贴心地递上纸巾。</t>
+  </si>
+  <si>
+    <t>程敏敏很感谢张智君让她发现了一个复习功课的好去处，-有人气却又很安静…</t>
+  </si>
+  <si>
+    <t>能有一段值得怀念的快乐回忆，张智君已经很知足了。-他怀着结束一切的平淡心情发出了这条信息，-却收获了意想不到的回应…</t>
+  </si>
+  <si>
+    <t>101</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1_2</t>
+    <t>101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>程敏敏终于知道了表白墙上的神秘男生的真面目，-似乎听那个闷骚学霸提起过？</t>
-  </si>
-  <si>
-    <t>朋友鼓励自己试试，没想到她居然答应了…-张志军在兴奋之余，感到有些不知所措。</t>
-  </si>
-  <si>
-    <t>张志军装出一副刚准时抵达图书馆门口的样子，-程敏敏没有拆穿，反而觉得他有点可爱。</t>
-  </si>
-  <si>
-    <t>度过了充满不安和煎熬的30分钟，-在看到那个熟悉身影匆忙向自己跑来的时候，张志军居然有点想哭。</t>
-  </si>
-  <si>
-    <t>这么一说，好像在化学红榜上见过这个名字…-程敏敏想着，年级第三给我补习，这次化学总该有救了！</t>
-  </si>
-  <si>
-    <t>程敏敏给自己讲题的认真的样子真好看…-张志军瞟了一眼后眼神迅速回归试卷，试图平复自己的心跳。</t>
-  </si>
-  <si>
-    <t>虽然张志军想请客，但程敏敏坚持要AA制。-程敏敏幸福地啃了一嘴油，张志军很贴心地递上纸巾。</t>
-  </si>
-  <si>
-    <t>化解了自己没钱的窘境，还请吃自己最喜欢的KFB，程敏敏感到十分满足。-下周一再去隔壁班把钱还给他吧。</t>
-  </si>
-  <si>
-    <t>这句没话找话的开头让程敏敏产生了一种微妙的预感…-她只能随意地搪塞过去。</t>
-  </si>
-  <si>
-    <t>程敏敏很感谢张志军让她发现了一个复习功课的好去处，-有人气却又很安静…</t>
-  </si>
-  <si>
-    <t>他真的很害羞呢…程敏敏想，-会把害羞的事情说出来，他也够楞的。</t>
-  </si>
-  <si>
-    <t>能有一段值得怀念的快乐回忆，张志军已经很知足了。-他怀着结束一切的平淡心情发出了这条信息，-却收获了意想不到的回应…</t>
+    <t>103</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -174,7 +178,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -191,6 +195,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -508,17 +521,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6903AA5B-5230-4BFA-9C34-0009394C5AF9}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="12.25" customWidth="1"/>
-    <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="9" customWidth="1"/>
     <col min="5" max="5" width="73.625" customWidth="1"/>
-    <col min="7" max="7" width="15.375" customWidth="1"/>
+    <col min="6" max="6" width="9" style="9"/>
+    <col min="7" max="7" width="15.375" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -531,22 +543,22 @@
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1">
         <v>101</v>
@@ -554,22 +566,22 @@
       <c r="C2" s="2">
         <v>103</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="8">
         <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="F2" s="9">
+        <v>1</v>
+      </c>
+      <c r="G2" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1">
         <v>101</v>
@@ -577,22 +589,22 @@
       <c r="C3" s="2">
         <v>104</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="8">
         <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1">
         <v>102</v>
@@ -600,22 +612,22 @@
       <c r="C4" s="2">
         <v>105</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="8">
         <v>10</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
+        <v>12</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B5" s="5">
         <v>107</v>
@@ -623,22 +635,22 @@
       <c r="C5" s="2">
         <v>115</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="8">
         <v>15</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
+        <v>13</v>
+      </c>
+      <c r="F5" s="9">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B6" s="5">
         <v>107</v>
@@ -646,22 +658,22 @@
       <c r="C6" s="2">
         <v>116</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="8">
         <v>20</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
+        <v>14</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B7" s="5">
         <v>112</v>
@@ -669,22 +681,22 @@
       <c r="C7" s="2">
         <v>118</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="8">
         <v>30</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
+        <v>8</v>
+      </c>
+      <c r="F7" s="9">
+        <v>1</v>
+      </c>
+      <c r="G7" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5">
         <v>109</v>
@@ -692,22 +704,22 @@
       <c r="C8" s="2">
         <v>119</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="8">
         <v>40</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
+      <c r="F8" s="9">
+        <v>1</v>
+      </c>
+      <c r="G8" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B9" s="5">
         <v>113</v>
@@ -715,22 +727,22 @@
       <c r="C9" s="2">
         <v>121</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="8">
         <v>20</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
+      <c r="F9" s="9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B10" s="5">
         <v>113</v>
@@ -738,22 +750,22 @@
       <c r="C10" s="2">
         <v>122</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="8">
         <v>25</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
+        <v>9</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1</v>
+      </c>
+      <c r="G10" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1">
         <v>123</v>
@@ -761,22 +773,22 @@
       <c r="C11" s="2">
         <v>128</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="8">
         <v>15</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="F11" s="9">
+        <v>1</v>
+      </c>
+      <c r="G11" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1">
         <v>123</v>
@@ -784,22 +796,22 @@
       <c r="C12" s="2">
         <v>129</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="8">
         <v>10</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
+        <v>17</v>
+      </c>
+      <c r="F12" s="9">
+        <v>1</v>
+      </c>
+      <c r="G12" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1">
         <v>125</v>
@@ -807,22 +819,22 @@
       <c r="C13" s="2">
         <v>128</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="8">
         <v>10</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
+        <v>11</v>
+      </c>
+      <c r="F13" s="9">
+        <v>1</v>
+      </c>
+      <c r="G13" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B14" s="1">
         <v>126</v>
@@ -830,16 +842,16 @@
       <c r="C14" s="2">
         <v>130</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="8">
         <v>40</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
+        <v>18</v>
+      </c>
+      <c r="F14" s="9">
+        <v>1</v>
+      </c>
+      <c r="G14" s="9">
         <v>1</v>
       </c>
     </row>
@@ -847,5 +859,8 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A5:A6 A2:A4 A7:A14" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/Client/Assets/Excels/CardResultInfo.xlsx
+++ b/Client/Assets/Excels/CardResultInfo.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ForgetfulCupid\ForgetfulCupid\Client\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E43D9B-8370-4BC6-8940-01036F4A52BB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9858FC8-341D-4E1E-A37D-2FCEA5FE6906}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14655" windowHeight="7260" xr2:uid="{C11773D7-1DB1-4317-AA90-602F99C2BA99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$20</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>左边卡片ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,10 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>特殊结局</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>特殊关卡(levelID)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -53,9 +52,6 @@
   <si>
     <t>结算语句</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>程敏敏终于知道了表白墙上的神秘男生的真面目，-似乎听那个闷骚学霸提起过？</t>
   </si>
   <si>
     <t>这么一说，好像在化学红榜上见过这个名字…-程敏敏想着，年级第三给我补习，这次化学总该有救了！</t>
@@ -105,6 +101,54 @@
   <si>
     <t>103</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程敏敏终于知道了表白墙上的神秘男生的真面目，-似乎听那个闷骚学霸提起过？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发特殊结局的卡片配对此值为-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊结局编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应结局名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抱歉，没空！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有什么比开黑更重要？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《高考英语词汇手册》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>另一个人？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对不起，你是个好人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应结局图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -178,7 +222,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -204,6 +248,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -519,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6903AA5B-5230-4BFA-9C34-0009394C5AF9}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
@@ -529,13 +579,15 @@
     <col min="3" max="3" width="12.25" customWidth="1"/>
     <col min="4" max="4" width="12.625" style="9" customWidth="1"/>
     <col min="5" max="5" width="73.625" customWidth="1"/>
-    <col min="6" max="6" width="9" style="9"/>
-    <col min="7" max="7" width="15.375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="13" style="9" customWidth="1"/>
+    <col min="7" max="7" width="20.375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="13.875" style="9" customWidth="1"/>
+    <col min="9" max="9" width="15.375" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -547,320 +599,441 @@
         <v>2</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="1">
-        <v>101</v>
-      </c>
-      <c r="C2" s="2">
-        <v>103</v>
-      </c>
-      <c r="D2" s="8">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="9">
-        <v>1</v>
-      </c>
-      <c r="G2" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:9" s="10" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1">
         <v>101</v>
       </c>
       <c r="C3" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D3" s="8">
         <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="F3" s="9">
-        <v>1</v>
-      </c>
-      <c r="G3" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+      <c r="I3" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C4" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D4" s="8">
         <v>10</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="9">
+        <v>-1</v>
+      </c>
+      <c r="I4" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1">
+        <v>102</v>
+      </c>
+      <c r="C5" s="2">
+        <v>105</v>
+      </c>
+      <c r="D5" s="8">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="9">
+        <v>-1</v>
+      </c>
+      <c r="I5" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1">
+        <v>102</v>
+      </c>
+      <c r="C6" s="2">
+        <v>106</v>
+      </c>
+      <c r="D6" s="8">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="5">
+        <v>107</v>
+      </c>
+      <c r="C7" s="2">
+        <v>115</v>
+      </c>
+      <c r="D7" s="8">
+        <v>15</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="9">
+        <v>-1</v>
+      </c>
+      <c r="I7" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="5">
+        <v>107</v>
+      </c>
+      <c r="C8" s="2">
+        <v>116</v>
+      </c>
+      <c r="D8" s="8">
+        <v>20</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="9">
-        <v>1</v>
-      </c>
-      <c r="G4" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="F8" s="9">
+        <v>-1</v>
+      </c>
+      <c r="I8" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="5">
+        <v>112</v>
+      </c>
+      <c r="C9" s="2">
+        <v>118</v>
+      </c>
+      <c r="D9" s="8">
+        <v>30</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="9">
+        <v>-1</v>
+      </c>
+      <c r="I9" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="5">
+        <v>109</v>
+      </c>
+      <c r="C10" s="2">
+        <v>119</v>
+      </c>
+      <c r="D10" s="8">
+        <v>40</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="9">
+        <v>-1</v>
+      </c>
+      <c r="I10" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="5">
+        <v>113</v>
+      </c>
+      <c r="C11" s="2">
+        <v>121</v>
+      </c>
+      <c r="D11" s="8">
+        <v>20</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="9">
+        <v>-1</v>
+      </c>
+      <c r="I11" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="5">
+        <v>113</v>
+      </c>
+      <c r="C12" s="2">
+        <v>122</v>
+      </c>
+      <c r="D12" s="8">
+        <v>25</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="9">
+        <v>-1</v>
+      </c>
+      <c r="I12" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B13" s="5">
         <v>107</v>
       </c>
-      <c r="C5" s="2">
-        <v>115</v>
-      </c>
-      <c r="D5" s="8">
+      <c r="C13" s="2">
+        <v>117</v>
+      </c>
+      <c r="D13" s="8">
+        <v>-1</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="9">
+        <v>2</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="5">
+        <v>110</v>
+      </c>
+      <c r="C14" s="2">
+        <v>120</v>
+      </c>
+      <c r="D14" s="8">
+        <v>-1</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="9">
+        <v>3</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1">
+        <v>123</v>
+      </c>
+      <c r="C15" s="2">
+        <v>128</v>
+      </c>
+      <c r="D15" s="8">
         <v>15</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="9">
-        <v>1</v>
-      </c>
-      <c r="G5" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="5">
-        <v>107</v>
-      </c>
-      <c r="C6" s="2">
-        <v>116</v>
-      </c>
-      <c r="D6" s="8">
+      <c r="E15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="9">
+        <v>-1</v>
+      </c>
+      <c r="I15" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="9">
-        <v>1</v>
-      </c>
-      <c r="G6" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="5">
-        <v>112</v>
-      </c>
-      <c r="C7" s="2">
-        <v>118</v>
-      </c>
-      <c r="D7" s="8">
+      <c r="B16" s="1">
+        <v>123</v>
+      </c>
+      <c r="C16" s="2">
+        <v>129</v>
+      </c>
+      <c r="D16" s="8">
+        <v>10</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="9">
+        <v>-1</v>
+      </c>
+      <c r="I16" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="1">
+        <v>125</v>
+      </c>
+      <c r="C17" s="2">
+        <v>128</v>
+      </c>
+      <c r="D17" s="8">
+        <v>10</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="9">
+        <v>-1</v>
+      </c>
+      <c r="I17" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1">
+        <v>126</v>
+      </c>
+      <c r="C18" s="2">
+        <v>130</v>
+      </c>
+      <c r="D18" s="8">
+        <v>40</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="9">
+        <v>-1</v>
+      </c>
+      <c r="I18" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>103</v>
+      </c>
+      <c r="B19" s="1">
+        <v>126</v>
+      </c>
+      <c r="C19" s="2">
+        <v>131</v>
+      </c>
+      <c r="D19" s="9">
+        <v>-1</v>
+      </c>
+      <c r="F19" s="9">
+        <v>4</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>103</v>
+      </c>
+      <c r="B20" s="1">
+        <v>126</v>
+      </c>
+      <c r="C20" s="2">
+        <v>132</v>
+      </c>
+      <c r="D20" s="9">
+        <v>-1</v>
+      </c>
+      <c r="F20" s="9">
+        <v>5</v>
+      </c>
+      <c r="G20" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="9">
-        <v>1</v>
-      </c>
-      <c r="G7" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="5">
-        <v>109</v>
-      </c>
-      <c r="C8" s="2">
-        <v>119</v>
-      </c>
-      <c r="D8" s="8">
-        <v>40</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="9">
-        <v>1</v>
-      </c>
-      <c r="G8" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="5">
-        <v>113</v>
-      </c>
-      <c r="C9" s="2">
-        <v>121</v>
-      </c>
-      <c r="D9" s="8">
-        <v>20</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="9">
-        <v>1</v>
-      </c>
-      <c r="G9" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="5">
-        <v>113</v>
-      </c>
-      <c r="C10" s="2">
-        <v>122</v>
-      </c>
-      <c r="D10" s="8">
-        <v>25</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="9">
-        <v>1</v>
-      </c>
-      <c r="G10" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="1">
-        <v>123</v>
-      </c>
-      <c r="C11" s="2">
-        <v>128</v>
-      </c>
-      <c r="D11" s="8">
-        <v>15</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="9">
-        <v>1</v>
-      </c>
-      <c r="G11" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="1">
-        <v>123</v>
-      </c>
-      <c r="C12" s="2">
-        <v>129</v>
-      </c>
-      <c r="D12" s="8">
-        <v>10</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="9">
-        <v>1</v>
-      </c>
-      <c r="G12" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="1">
-        <v>125</v>
-      </c>
-      <c r="C13" s="2">
-        <v>128</v>
-      </c>
-      <c r="D13" s="8">
-        <v>10</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="9">
-        <v>1</v>
-      </c>
-      <c r="G13" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="1">
-        <v>126</v>
-      </c>
-      <c r="C14" s="2">
-        <v>130</v>
-      </c>
-      <c r="D14" s="8">
-        <v>40</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="9">
-        <v>1</v>
-      </c>
-      <c r="G14" s="9">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I20" xr:uid="{C123DADC-51CA-4B3F-9135-ACC7EB4AD809}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A5:A6 A2:A4 A7:A14" numberStoredAsText="1"/>
+    <ignoredError sqref="A3:A6 A13:A18 A7:A12" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Client/Assets/Excels/CardResultInfo.xlsx
+++ b/Client/Assets/Excels/CardResultInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ForgetfulCupid\ForgetfulCupid\Client\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9858FC8-341D-4E1E-A37D-2FCEA5FE6906}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718CEAD7-4781-457E-93C0-49EBD65894FA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14655" windowHeight="7260" xr2:uid="{C11773D7-1DB1-4317-AA90-602F99C2BA99}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$20</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
   <si>
     <t>左边卡片ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,9 +63,6 @@
     <t>这句没话找话的开头让程敏敏产生了一种微妙的预感…-她只能随意地搪塞过去。</t>
   </si>
   <si>
-    <t>他真的很害羞呢…程敏敏想，-会把害羞的事情说出来，他也够楞的。</t>
-  </si>
-  <si>
     <t>朋友鼓励自己试试，没想到她居然答应了…-张智君在兴奋之余，感到有些不知所措。</t>
   </si>
   <si>
@@ -82,9 +79,6 @@
   </si>
   <si>
     <t>程敏敏很感谢张智君让她发现了一个复习功课的好去处，-有人气却又很安静…</t>
-  </si>
-  <si>
-    <t>能有一段值得怀念的快乐回忆，张智君已经很知足了。-他怀着结束一切的平淡心情发出了这条信息，-却收获了意想不到的回应…</t>
   </si>
   <si>
     <t>101</t>
@@ -135,10 +129,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>另一个人？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>对不起，你是个好人。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -148,6 +138,124 @@
   </si>
   <si>
     <t>目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右卡率先显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能有一段值得怀念的快乐回忆，张智君已经很知足了。-他怀着结束一切的平淡心情发出了这条信息，-却收获了意想不到的回应…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逐渐明朗的心情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏禁止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各自的烦恼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某些卡片配对，
+右卡在语义上要率先显示；
+默认是左卡先显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就算有体育特长生的身份作庇护，-程敏敏也很担心袁奕宸能不能正常毕业。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>既然他保证会先写完作业…就陪他打两局好了，-我其实没有很想玩的…程敏敏想。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看到袁奕宸的在线时长，程敏敏叹了口气。-果然作业啊考试什么的对他而言都没有GOTA重要。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你才上线啊，我下午就把作业写完了，等你好久了。-程敏敏不敢相信，这是从那个-视学习如洪水猛兽的人嘴里说出来的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深知程敏敏的家庭矛盾，袁奕宸不想加重她的压力，-于是提出一起去快速模式打娱乐局，放松心情。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁奕宸觉得程敏敏似乎隐瞒了什么…-但既然她不肯说，他也不会强求。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看到程敏敏道歉，袁奕宸也不好意思再吐槽她的失误。-今天也只能这样了，上分还是下次吧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他们以后再吵架，你就跳进去开大，有我辅助保你不死。-袁奕宸的吐槽瞬间驱散了程敏敏心中的阴霾。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为袁奕宸的敲门声，程敏敏的父母暂停了争吵，-而程敏敏也从厕所里出来，一言不发地和袁奕宸一起出门了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小时候袁奕宸也总是从窗口招呼程敏敏出去玩，-这是他们之间不成文的约定。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程敏敏的父母告诉袁奕宸她正在房间里学习，-袁奕宸以请教作业为由，把程敏敏从家里带出去了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看到程敏敏没什么食欲的样子，袁奕宸决定把目的地从KFB换成星巴巴。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>既然程敏敏没怎么吃晚饭，正好可以请她去吃她最喜欢的KFB。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程敏敏的肚子十分应景地发出了咕噜声。-果然敏哥的问题没什么是一只炸鸡解决不了的，如果不行，那就再加一只。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁奕宸很清楚程敏敏家里那些破事。-他这么问，是希望程敏敏能把内心的不愉快都发泄出来。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借着程敏敏吐槽父母的机会，袁奕宸也开始列举他和前女友的争吵。-两人越谈越来劲，逗得对方哈哈大笑。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你前女友看我的眼神就像要把我吃了一样…-程敏敏翻了个白眼，青梅竹马可真难做人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁奕宸怕程敏敏恋爱后就不和他一起玩游戏了。-“都和你玩这么多年游戏了，以后也只能找你玩啊。”-程敏敏笑着说。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青梅竹马的冷战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>违心之言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>争吵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他真的很害羞呢…程敏敏想。-会把害羞的事情说出来，他也真够楞的。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -158,7 +266,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,8 +289,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -207,13 +323,34 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -222,29 +359,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -252,8 +372,41 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -569,466 +722,1182 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6903AA5B-5230-4BFA-9C34-0009394C5AF9}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="12.25" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="73.625" customWidth="1"/>
-    <col min="6" max="6" width="13" style="9" customWidth="1"/>
-    <col min="7" max="7" width="20.375" style="9" customWidth="1"/>
-    <col min="8" max="8" width="13.875" style="9" customWidth="1"/>
-    <col min="9" max="9" width="15.375" style="9" customWidth="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="11" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="73.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15.375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="7" t="s">
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" s="3" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="9">
+        <v>101</v>
+      </c>
+      <c r="C3" s="10">
+        <v>103</v>
+      </c>
+      <c r="D3" s="10">
+        <v>1</v>
+      </c>
+      <c r="E3" s="11">
+        <v>10</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="12">
+        <v>-1</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="9">
+        <v>101</v>
+      </c>
+      <c r="C4" s="10">
+        <v>104</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1</v>
+      </c>
+      <c r="E4" s="15">
+        <v>10</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="12">
+        <v>-1</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="9">
+        <v>102</v>
+      </c>
+      <c r="C5" s="10">
+        <v>105</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="15">
+        <v>10</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="12">
+        <v>-1</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="9">
+        <v>102</v>
+      </c>
+      <c r="C6" s="10">
+        <v>106</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12">
+        <v>1</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="I6" s="12"/>
+      <c r="J6" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="13">
+        <v>107</v>
+      </c>
+      <c r="C7" s="10">
+        <v>115</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11">
+        <v>15</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="12">
+        <v>-1</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="13">
+        <v>107</v>
+      </c>
+      <c r="C8" s="10">
+        <v>116</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="15">
+        <v>20</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="12">
+        <v>-1</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="13">
+        <v>112</v>
+      </c>
+      <c r="C9" s="10">
+        <v>118</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11">
+        <v>30</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="12">
+        <v>-1</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="13">
+        <v>109</v>
+      </c>
+      <c r="C10" s="10">
+        <v>119</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="15">
+        <v>35</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="12">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="13">
+        <v>113</v>
+      </c>
+      <c r="C11" s="10">
+        <v>121</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1</v>
+      </c>
+      <c r="E11" s="11">
+        <v>20</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="12">
+        <v>-1</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="13">
+        <v>113</v>
+      </c>
+      <c r="C12" s="10">
+        <v>122</v>
+      </c>
+      <c r="D12" s="10">
+        <v>1</v>
+      </c>
+      <c r="E12" s="15">
         <v>25</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="F12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="12">
+        <v>-1</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="13">
+        <v>107</v>
+      </c>
+      <c r="C13" s="10">
+        <v>117</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="12">
+        <v>2</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="13">
+        <v>110</v>
+      </c>
+      <c r="C14" s="10">
+        <v>120</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="12">
+        <v>3</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="9">
+        <v>123</v>
+      </c>
+      <c r="C15" s="10">
+        <v>128</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="15">
+        <v>15</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="12">
+        <v>-1</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="9">
+        <v>123</v>
+      </c>
+      <c r="C16" s="10">
+        <v>129</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11">
+        <v>10</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="12">
+        <v>-1</v>
+      </c>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="9">
+        <v>125</v>
+      </c>
+      <c r="C17" s="10">
+        <v>128</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11">
+        <v>10</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="12">
+        <v>-1</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="9">
+        <v>126</v>
+      </c>
+      <c r="C18" s="10">
+        <v>130</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="15">
+        <v>40</v>
+      </c>
+      <c r="F18" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="10" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="10" t="s">
+      <c r="G18" s="12">
+        <v>-1</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="8">
+        <v>103</v>
+      </c>
+      <c r="B19" s="9">
+        <v>126</v>
+      </c>
+      <c r="C19" s="10">
+        <v>131</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="12">
+        <v>-1</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12">
+        <v>4</v>
+      </c>
+      <c r="H19" s="12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="1">
-        <v>101</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="8">
         <v>103</v>
       </c>
-      <c r="D3" s="8">
+      <c r="B20" s="9">
+        <v>126</v>
+      </c>
+      <c r="C20" s="10">
+        <v>132</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="12">
+        <v>-1</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12">
+        <v>5</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="12">
+        <v>104</v>
+      </c>
+      <c r="B21" s="13">
+        <v>133</v>
+      </c>
+      <c r="C21" s="12">
+        <v>137</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12">
+        <v>-1</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12">
+        <v>6</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="12">
+        <v>104</v>
+      </c>
+      <c r="B22" s="13">
+        <v>133</v>
+      </c>
+      <c r="C22" s="12">
+        <v>138</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="14">
+        <v>5</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="12">
+        <v>-1</v>
+      </c>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="12">
+        <v>104</v>
+      </c>
+      <c r="B23" s="13">
+        <v>134</v>
+      </c>
+      <c r="C23" s="12">
+        <v>139</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12">
+        <v>-1</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12">
+        <v>7</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="12">
+        <v>104</v>
+      </c>
+      <c r="B24" s="13">
+        <v>135</v>
+      </c>
+      <c r="C24" s="12">
+        <v>140</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="14">
+        <v>20</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="12">
+        <v>-1</v>
+      </c>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="12">
+        <v>105</v>
+      </c>
+      <c r="B25" s="9">
+        <v>141</v>
+      </c>
+      <c r="C25" s="12">
+        <v>148</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12">
+        <v>5</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="12">
+        <v>-1</v>
+      </c>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="12">
+        <v>105</v>
+      </c>
+      <c r="B26" s="9">
+        <v>142</v>
+      </c>
+      <c r="C26" s="12">
+        <v>148</v>
+      </c>
+      <c r="D26" s="12">
+        <v>1</v>
+      </c>
+      <c r="E26" s="14">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="9">
-        <v>-1</v>
-      </c>
-      <c r="I3" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="1">
-        <v>101</v>
-      </c>
-      <c r="C4" s="2">
-        <v>104</v>
-      </c>
-      <c r="D4" s="8">
+      <c r="F26" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="12">
+        <v>-1</v>
+      </c>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="12">
+        <v>105</v>
+      </c>
+      <c r="B27" s="9">
+        <v>144</v>
+      </c>
+      <c r="C27" s="12">
+        <v>150</v>
+      </c>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12">
+        <v>20</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" s="12">
+        <v>-1</v>
+      </c>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="12">
+        <v>105</v>
+      </c>
+      <c r="B28" s="9">
+        <v>144</v>
+      </c>
+      <c r="C28" s="12">
+        <v>149</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12">
         <v>10</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="9">
-        <v>-1</v>
-      </c>
-      <c r="I4" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="1">
-        <v>102</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="F28" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="12">
+        <v>-1</v>
+      </c>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="12">
         <v>105</v>
       </c>
-      <c r="D5" s="8">
+      <c r="B29" s="9">
+        <v>145</v>
+      </c>
+      <c r="C29" s="12">
+        <v>151</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12">
+        <v>-1</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12">
+        <v>8</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="12">
+        <v>105</v>
+      </c>
+      <c r="B30" s="9">
+        <v>143</v>
+      </c>
+      <c r="C30" s="12">
+        <v>149</v>
+      </c>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12">
+        <v>5</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="12">
+        <v>-1</v>
+      </c>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="12">
+        <v>105</v>
+      </c>
+      <c r="B31" s="9">
+        <v>143</v>
+      </c>
+      <c r="C31" s="12">
+        <v>150</v>
+      </c>
+      <c r="D31" s="12"/>
+      <c r="E31" s="14">
+        <v>30</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" s="12">
+        <v>-1</v>
+      </c>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="12">
+        <v>105</v>
+      </c>
+      <c r="B32" s="9">
+        <v>146</v>
+      </c>
+      <c r="C32" s="12">
+        <v>152</v>
+      </c>
+      <c r="D32" s="12">
+        <v>1</v>
+      </c>
+      <c r="E32" s="12">
+        <v>20</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G32" s="12">
+        <v>-1</v>
+      </c>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="12">
+        <v>105</v>
+      </c>
+      <c r="B33" s="9">
+        <v>146</v>
+      </c>
+      <c r="C33" s="12">
+        <v>154</v>
+      </c>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12">
+        <v>-1</v>
+      </c>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12">
+        <v>9</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="12">
+        <v>105</v>
+      </c>
+      <c r="B34" s="9">
+        <v>147</v>
+      </c>
+      <c r="C34" s="12">
+        <v>154</v>
+      </c>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12">
+        <v>-1</v>
+      </c>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12">
+        <v>9</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="12">
+        <v>105</v>
+      </c>
+      <c r="B35" s="9">
+        <v>147</v>
+      </c>
+      <c r="C35" s="12">
+        <v>152</v>
+      </c>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12">
+        <v>-1</v>
+      </c>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12">
+        <v>9</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="12">
+        <v>105</v>
+      </c>
+      <c r="B36" s="9">
+        <v>147</v>
+      </c>
+      <c r="C36" s="12">
+        <v>153</v>
+      </c>
+      <c r="D36" s="12">
+        <v>1</v>
+      </c>
+      <c r="E36" s="14">
+        <v>35</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G36" s="12">
+        <v>-1</v>
+      </c>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="12">
+        <v>105</v>
+      </c>
+      <c r="B37" s="9">
+        <v>146</v>
+      </c>
+      <c r="C37" s="12">
+        <v>153</v>
+      </c>
+      <c r="D37" s="12">
+        <v>1</v>
+      </c>
+      <c r="E37" s="12">
+        <v>15</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" s="12">
+        <v>-1</v>
+      </c>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="12">
+        <v>106</v>
+      </c>
+      <c r="B38" s="13">
+        <v>155</v>
+      </c>
+      <c r="C38" s="12">
+        <v>160</v>
+      </c>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12">
+        <v>5</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G38" s="12">
+        <v>-1</v>
+      </c>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="12">
+        <v>106</v>
+      </c>
+      <c r="B39" s="13">
+        <v>155</v>
+      </c>
+      <c r="C39" s="12">
+        <v>161</v>
+      </c>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12">
         <v>10</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F39" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G39" s="12">
+        <v>-1</v>
+      </c>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="12">
+        <v>106</v>
+      </c>
+      <c r="B40" s="13">
+        <v>156</v>
+      </c>
+      <c r="C40" s="12">
+        <v>161</v>
+      </c>
+      <c r="D40" s="12"/>
+      <c r="E40" s="14">
+        <v>25</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G40" s="12">
+        <v>-1</v>
+      </c>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="12">
+        <v>106</v>
+      </c>
+      <c r="B41" s="13">
+        <v>156</v>
+      </c>
+      <c r="C41" s="12">
+        <v>160</v>
+      </c>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12">
+        <v>-1</v>
+      </c>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12">
         <v>10</v>
       </c>
-      <c r="F5" s="9">
-        <v>-1</v>
-      </c>
-      <c r="I5" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="1">
-        <v>102</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="H41" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="12">
         <v>106</v>
       </c>
-      <c r="D6" s="8">
-        <v>-1</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9">
-        <v>1</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="5">
-        <v>107</v>
-      </c>
-      <c r="C7" s="2">
-        <v>115</v>
-      </c>
-      <c r="D7" s="8">
+      <c r="B42" s="13">
+        <v>157</v>
+      </c>
+      <c r="C42" s="12">
+        <v>162</v>
+      </c>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12">
+        <v>20</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G42" s="12">
+        <v>-1</v>
+      </c>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="12">
+        <v>106</v>
+      </c>
+      <c r="B43" s="13">
+        <v>157</v>
+      </c>
+      <c r="C43" s="12">
+        <v>163</v>
+      </c>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12">
+        <v>-1</v>
+      </c>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12">
+        <v>11</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="12">
+        <v>106</v>
+      </c>
+      <c r="B44" s="13">
+        <v>158</v>
+      </c>
+      <c r="C44" s="12">
+        <v>162</v>
+      </c>
+      <c r="D44" s="12">
+        <v>1</v>
+      </c>
+      <c r="E44" s="12">
+        <v>20</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G44" s="12">
+        <v>-1</v>
+      </c>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="12">
+        <v>106</v>
+      </c>
+      <c r="B45" s="13">
+        <v>158</v>
+      </c>
+      <c r="C45" s="12">
+        <v>164</v>
+      </c>
+      <c r="D45" s="12">
+        <v>1</v>
+      </c>
+      <c r="E45" s="12">
         <v>15</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="9">
-        <v>-1</v>
-      </c>
-      <c r="I7" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="5">
-        <v>107</v>
-      </c>
-      <c r="C8" s="2">
-        <v>116</v>
-      </c>
-      <c r="D8" s="8">
-        <v>20</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="9">
-        <v>-1</v>
-      </c>
-      <c r="I8" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="5">
-        <v>112</v>
-      </c>
-      <c r="C9" s="2">
-        <v>118</v>
-      </c>
-      <c r="D9" s="8">
-        <v>30</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="9">
-        <v>-1</v>
-      </c>
-      <c r="I9" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="5">
-        <v>109</v>
-      </c>
-      <c r="C10" s="2">
-        <v>119</v>
-      </c>
-      <c r="D10" s="8">
-        <v>40</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="9">
-        <v>-1</v>
-      </c>
-      <c r="I10" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="5">
-        <v>113</v>
-      </c>
-      <c r="C11" s="2">
-        <v>121</v>
-      </c>
-      <c r="D11" s="8">
-        <v>20</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="9">
-        <v>-1</v>
-      </c>
-      <c r="I11" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="5">
-        <v>113</v>
-      </c>
-      <c r="C12" s="2">
-        <v>122</v>
-      </c>
-      <c r="D12" s="8">
+      <c r="F45" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G45" s="12">
+        <v>-1</v>
+      </c>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="12">
+        <v>106</v>
+      </c>
+      <c r="B46" s="13">
+        <v>159</v>
+      </c>
+      <c r="C46" s="12">
+        <v>164</v>
+      </c>
+      <c r="D46" s="12"/>
+      <c r="E46" s="14">
         <v>25</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="9">
-        <v>-1</v>
-      </c>
-      <c r="I12" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="5">
-        <v>107</v>
-      </c>
-      <c r="C13" s="2">
-        <v>117</v>
-      </c>
-      <c r="D13" s="8">
-        <v>-1</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="9">
-        <v>2</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="5">
-        <v>110</v>
-      </c>
-      <c r="C14" s="2">
-        <v>120</v>
-      </c>
-      <c r="D14" s="8">
-        <v>-1</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="9">
-        <v>3</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="1">
-        <v>123</v>
-      </c>
-      <c r="C15" s="2">
-        <v>128</v>
-      </c>
-      <c r="D15" s="8">
-        <v>15</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="9">
-        <v>-1</v>
-      </c>
-      <c r="I15" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="1">
-        <v>123</v>
-      </c>
-      <c r="C16" s="2">
-        <v>129</v>
-      </c>
-      <c r="D16" s="8">
-        <v>10</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="9">
-        <v>-1</v>
-      </c>
-      <c r="I16" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="1">
-        <v>125</v>
-      </c>
-      <c r="C17" s="2">
-        <v>128</v>
-      </c>
-      <c r="D17" s="8">
-        <v>10</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="9">
-        <v>-1</v>
-      </c>
-      <c r="I17" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="1">
-        <v>126</v>
-      </c>
-      <c r="C18" s="2">
-        <v>130</v>
-      </c>
-      <c r="D18" s="8">
-        <v>40</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="9">
-        <v>-1</v>
-      </c>
-      <c r="I18" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
-        <v>103</v>
-      </c>
-      <c r="B19" s="1">
-        <v>126</v>
-      </c>
-      <c r="C19" s="2">
-        <v>131</v>
-      </c>
-      <c r="D19" s="9">
-        <v>-1</v>
-      </c>
-      <c r="F19" s="9">
-        <v>4</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
-        <v>103</v>
-      </c>
-      <c r="B20" s="1">
-        <v>126</v>
-      </c>
-      <c r="C20" s="2">
-        <v>132</v>
-      </c>
-      <c r="D20" s="9">
-        <v>-1</v>
-      </c>
-      <c r="F20" s="9">
-        <v>5</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>30</v>
-      </c>
+      <c r="F46" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G46" s="12">
+        <v>-1</v>
+      </c>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I20" xr:uid="{C123DADC-51CA-4B3F-9135-ACC7EB4AD809}"/>
+  <autoFilter ref="A1:J20" xr:uid="{C123DADC-51CA-4B3F-9135-ACC7EB4AD809}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Client/Assets/Excels/CardResultInfo.xlsx
+++ b/Client/Assets/Excels/CardResultInfo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ForgetfulCupid\ForgetfulCupid\Client\Assets\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\game\unity_try\Forgetful Cupid\test\ForgetfulCupid\Client\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718CEAD7-4781-457E-93C0-49EBD65894FA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3839400-DDD8-4388-9E9E-181CFFD5D4F1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14655" windowHeight="7260" xr2:uid="{C11773D7-1DB1-4317-AA90-602F99C2BA99}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$20</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="59">
   <si>
     <t>左边卡片ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,10 +39,6 @@
   </si>
   <si>
     <t>心动值分数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊关卡(levelID)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -256,6 +252,10 @@
   </si>
   <si>
     <t>他真的很害羞呢…程敏敏想。-会把害羞的事情说出来，他也真够楞的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -722,9 +722,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6903AA5B-5230-4BFA-9C34-0009394C5AF9}">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -737,13 +739,12 @@
     <col min="7" max="7" width="13" style="2" customWidth="1"/>
     <col min="8" max="8" width="20.375" style="2" customWidth="1"/>
     <col min="9" max="9" width="13.875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="15.375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.75" customWidth="1"/>
+    <col min="10" max="10" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -752,49 +753,45 @@
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="I1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" s="3" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="9">
         <v>101</v>
@@ -809,20 +806,19 @@
         <v>10</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3" s="12">
         <v>-1</v>
       </c>
-      <c r="H3" s="12"/>
+      <c r="H3" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="I3" s="12"/>
-      <c r="J3" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="9">
         <v>101</v>
@@ -837,20 +833,19 @@
         <v>10</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" s="12">
         <v>-1</v>
       </c>
-      <c r="H4" s="12"/>
+      <c r="H4" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="I4" s="12"/>
-      <c r="J4" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="9">
         <v>102</v>
@@ -858,25 +853,26 @@
       <c r="C5" s="10">
         <v>105</v>
       </c>
-      <c r="D5" s="10"/>
+      <c r="D5" s="10">
+        <v>0</v>
+      </c>
       <c r="E5" s="15">
         <v>10</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5" s="12">
         <v>-1</v>
       </c>
-      <c r="H5" s="12"/>
+      <c r="H5" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="I5" s="12"/>
-      <c r="J5" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="9">
         <v>102</v>
@@ -884,7 +880,9 @@
       <c r="C6" s="10">
         <v>106</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="10">
+        <v>0</v>
+      </c>
       <c r="E6" s="11">
         <v>-1</v>
       </c>
@@ -893,16 +891,13 @@
         <v>1</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I6" s="12"/>
-      <c r="J6" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="13">
         <v>107</v>
@@ -910,25 +905,26 @@
       <c r="C7" s="10">
         <v>115</v>
       </c>
-      <c r="D7" s="10"/>
+      <c r="D7" s="10">
+        <v>0</v>
+      </c>
       <c r="E7" s="11">
         <v>15</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" s="12">
         <v>-1</v>
       </c>
-      <c r="H7" s="12"/>
+      <c r="H7" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="I7" s="12"/>
-      <c r="J7" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="13">
         <v>107</v>
@@ -936,25 +932,26 @@
       <c r="C8" s="10">
         <v>116</v>
       </c>
-      <c r="D8" s="10"/>
+      <c r="D8" s="10">
+        <v>0</v>
+      </c>
       <c r="E8" s="15">
         <v>20</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8" s="12">
         <v>-1</v>
       </c>
-      <c r="H8" s="12"/>
+      <c r="H8" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="I8" s="12"/>
-      <c r="J8" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="13">
         <v>112</v>
@@ -962,25 +959,26 @@
       <c r="C9" s="10">
         <v>118</v>
       </c>
-      <c r="D9" s="10"/>
+      <c r="D9" s="10">
+        <v>0</v>
+      </c>
       <c r="E9" s="11">
         <v>30</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G9" s="12">
         <v>-1</v>
       </c>
-      <c r="H9" s="12"/>
+      <c r="H9" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="I9" s="12"/>
-      <c r="J9" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="13">
         <v>109</v>
@@ -988,25 +986,26 @@
       <c r="C10" s="10">
         <v>119</v>
       </c>
-      <c r="D10" s="10"/>
+      <c r="D10" s="10">
+        <v>0</v>
+      </c>
       <c r="E10" s="15">
         <v>35</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" s="12">
         <v>-1</v>
       </c>
-      <c r="H10" s="12"/>
+      <c r="H10" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="I10" s="12"/>
-      <c r="J10" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="13">
         <v>113</v>
@@ -1021,20 +1020,19 @@
         <v>20</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" s="12">
         <v>-1</v>
       </c>
-      <c r="H11" s="12"/>
+      <c r="H11" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="I11" s="12"/>
-      <c r="J11" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="13">
         <v>113</v>
@@ -1049,20 +1047,19 @@
         <v>25</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G12" s="12">
         <v>-1</v>
       </c>
-      <c r="H12" s="12"/>
+      <c r="H12" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="I12" s="12"/>
-      <c r="J12" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="13">
         <v>107</v>
@@ -1070,7 +1067,9 @@
       <c r="C13" s="10">
         <v>117</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="10">
+        <v>0</v>
+      </c>
       <c r="E13" s="11">
         <v>-1</v>
       </c>
@@ -1079,14 +1078,13 @@
         <v>2</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="13">
         <v>110</v>
@@ -1094,7 +1092,9 @@
       <c r="C14" s="10">
         <v>120</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="10">
+        <v>0</v>
+      </c>
       <c r="E14" s="11">
         <v>-1</v>
       </c>
@@ -1103,14 +1103,13 @@
         <v>3</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="9">
         <v>123</v>
@@ -1118,25 +1117,26 @@
       <c r="C15" s="10">
         <v>128</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="10">
+        <v>0</v>
+      </c>
       <c r="E15" s="15">
         <v>15</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G15" s="12">
         <v>-1</v>
       </c>
-      <c r="H15" s="12"/>
+      <c r="H15" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="I15" s="12"/>
-      <c r="J15" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="9">
         <v>123</v>
@@ -1144,25 +1144,26 @@
       <c r="C16" s="10">
         <v>129</v>
       </c>
-      <c r="D16" s="10"/>
+      <c r="D16" s="10">
+        <v>0</v>
+      </c>
       <c r="E16" s="11">
         <v>10</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G16" s="12">
         <v>-1</v>
       </c>
-      <c r="H16" s="12"/>
+      <c r="H16" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="I16" s="12"/>
-      <c r="J16" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="9">
         <v>125</v>
@@ -1170,25 +1171,26 @@
       <c r="C17" s="10">
         <v>128</v>
       </c>
-      <c r="D17" s="10"/>
+      <c r="D17" s="10">
+        <v>0</v>
+      </c>
       <c r="E17" s="11">
         <v>10</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G17" s="12">
         <v>-1</v>
       </c>
-      <c r="H17" s="12"/>
+      <c r="H17" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="I17" s="12"/>
-      <c r="J17" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="9">
         <v>126</v>
@@ -1196,23 +1198,24 @@
       <c r="C18" s="10">
         <v>130</v>
       </c>
-      <c r="D18" s="10"/>
+      <c r="D18" s="10">
+        <v>0</v>
+      </c>
       <c r="E18" s="15">
         <v>40</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G18" s="12">
         <v>-1</v>
       </c>
-      <c r="H18" s="12"/>
+      <c r="H18" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="I18" s="12"/>
-      <c r="J18" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>103</v>
       </c>
@@ -1222,7 +1225,9 @@
       <c r="C19" s="10">
         <v>131</v>
       </c>
-      <c r="D19" s="10"/>
+      <c r="D19" s="10">
+        <v>0</v>
+      </c>
       <c r="E19" s="12">
         <v>-1</v>
       </c>
@@ -1231,12 +1236,11 @@
         <v>4</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>103</v>
       </c>
@@ -1246,7 +1250,9 @@
       <c r="C20" s="10">
         <v>132</v>
       </c>
-      <c r="D20" s="10"/>
+      <c r="D20" s="10">
+        <v>0</v>
+      </c>
       <c r="E20" s="12">
         <v>-1</v>
       </c>
@@ -1255,12 +1261,11 @@
         <v>5</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
         <v>104</v>
       </c>
@@ -1270,7 +1275,9 @@
       <c r="C21" s="12">
         <v>137</v>
       </c>
-      <c r="D21" s="12"/>
+      <c r="D21" s="10">
+        <v>0</v>
+      </c>
       <c r="E21" s="12">
         <v>-1</v>
       </c>
@@ -1279,12 +1286,11 @@
         <v>6</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
         <v>104</v>
       </c>
@@ -1294,21 +1300,24 @@
       <c r="C22" s="12">
         <v>138</v>
       </c>
-      <c r="D22" s="12"/>
+      <c r="D22" s="10">
+        <v>0</v>
+      </c>
       <c r="E22" s="14">
         <v>5</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G22" s="12">
         <v>-1</v>
       </c>
-      <c r="H22" s="12"/>
+      <c r="H22" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
         <v>104</v>
       </c>
@@ -1318,7 +1327,9 @@
       <c r="C23" s="12">
         <v>139</v>
       </c>
-      <c r="D23" s="12"/>
+      <c r="D23" s="10">
+        <v>0</v>
+      </c>
       <c r="E23" s="12">
         <v>-1</v>
       </c>
@@ -1327,12 +1338,11 @@
         <v>7</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
         <v>104</v>
       </c>
@@ -1342,21 +1352,24 @@
       <c r="C24" s="12">
         <v>140</v>
       </c>
-      <c r="D24" s="12"/>
+      <c r="D24" s="10">
+        <v>0</v>
+      </c>
       <c r="E24" s="14">
         <v>20</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G24" s="12">
         <v>-1</v>
       </c>
-      <c r="H24" s="12"/>
+      <c r="H24" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
         <v>105</v>
       </c>
@@ -1366,21 +1379,24 @@
       <c r="C25" s="12">
         <v>148</v>
       </c>
-      <c r="D25" s="12"/>
+      <c r="D25" s="10">
+        <v>0</v>
+      </c>
       <c r="E25" s="12">
         <v>5</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G25" s="12">
         <v>-1</v>
       </c>
-      <c r="H25" s="12"/>
+      <c r="H25" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
         <v>105</v>
       </c>
@@ -1397,16 +1413,17 @@
         <v>10</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G26" s="12">
         <v>-1</v>
       </c>
-      <c r="H26" s="12"/>
+      <c r="H26" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
         <v>105</v>
       </c>
@@ -1416,21 +1433,24 @@
       <c r="C27" s="12">
         <v>150</v>
       </c>
-      <c r="D27" s="12"/>
+      <c r="D27" s="12">
+        <v>0</v>
+      </c>
       <c r="E27" s="12">
         <v>20</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G27" s="12">
         <v>-1</v>
       </c>
-      <c r="H27" s="12"/>
+      <c r="H27" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <v>105</v>
       </c>
@@ -1440,21 +1460,24 @@
       <c r="C28" s="12">
         <v>149</v>
       </c>
-      <c r="D28" s="12"/>
+      <c r="D28" s="12">
+        <v>0</v>
+      </c>
       <c r="E28" s="12">
         <v>10</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G28" s="12">
         <v>-1</v>
       </c>
-      <c r="H28" s="12"/>
+      <c r="H28" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
         <v>105</v>
       </c>
@@ -1464,7 +1487,9 @@
       <c r="C29" s="12">
         <v>151</v>
       </c>
-      <c r="D29" s="12"/>
+      <c r="D29" s="12">
+        <v>0</v>
+      </c>
       <c r="E29" s="12">
         <v>-1</v>
       </c>
@@ -1473,12 +1498,11 @@
         <v>8</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="12">
         <v>105</v>
       </c>
@@ -1488,21 +1512,24 @@
       <c r="C30" s="12">
         <v>149</v>
       </c>
-      <c r="D30" s="12"/>
+      <c r="D30" s="12">
+        <v>0</v>
+      </c>
       <c r="E30" s="12">
         <v>5</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G30" s="12">
         <v>-1</v>
       </c>
-      <c r="H30" s="12"/>
+      <c r="H30" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="12">
         <v>105</v>
       </c>
@@ -1512,21 +1539,24 @@
       <c r="C31" s="12">
         <v>150</v>
       </c>
-      <c r="D31" s="12"/>
+      <c r="D31" s="12">
+        <v>0</v>
+      </c>
       <c r="E31" s="14">
         <v>30</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G31" s="12">
         <v>-1</v>
       </c>
-      <c r="H31" s="12"/>
+      <c r="H31" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="12">
         <v>105</v>
       </c>
@@ -1543,16 +1573,17 @@
         <v>20</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G32" s="12">
         <v>-1</v>
       </c>
-      <c r="H32" s="12"/>
+      <c r="H32" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="12">
         <v>105</v>
       </c>
@@ -1562,7 +1593,9 @@
       <c r="C33" s="12">
         <v>154</v>
       </c>
-      <c r="D33" s="12"/>
+      <c r="D33" s="12">
+        <v>0</v>
+      </c>
       <c r="E33" s="12">
         <v>-1</v>
       </c>
@@ -1571,12 +1604,11 @@
         <v>9</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="12">
         <v>105</v>
       </c>
@@ -1586,7 +1618,9 @@
       <c r="C34" s="12">
         <v>154</v>
       </c>
-      <c r="D34" s="12"/>
+      <c r="D34" s="12">
+        <v>0</v>
+      </c>
       <c r="E34" s="12">
         <v>-1</v>
       </c>
@@ -1595,12 +1629,11 @@
         <v>9</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="12">
         <v>105</v>
       </c>
@@ -1610,7 +1643,9 @@
       <c r="C35" s="12">
         <v>152</v>
       </c>
-      <c r="D35" s="12"/>
+      <c r="D35" s="12">
+        <v>0</v>
+      </c>
       <c r="E35" s="12">
         <v>-1</v>
       </c>
@@ -1619,12 +1654,11 @@
         <v>9</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="12">
         <v>105</v>
       </c>
@@ -1641,16 +1675,17 @@
         <v>35</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G36" s="12">
         <v>-1</v>
       </c>
-      <c r="H36" s="12"/>
+      <c r="H36" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="12">
         <v>105</v>
       </c>
@@ -1667,16 +1702,17 @@
         <v>15</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G37" s="12">
         <v>-1</v>
       </c>
-      <c r="H37" s="12"/>
+      <c r="H37" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="12">
         <v>106</v>
       </c>
@@ -1686,21 +1722,24 @@
       <c r="C38" s="12">
         <v>160</v>
       </c>
-      <c r="D38" s="12"/>
+      <c r="D38" s="12">
+        <v>0</v>
+      </c>
       <c r="E38" s="12">
         <v>5</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G38" s="12">
         <v>-1</v>
       </c>
-      <c r="H38" s="12"/>
+      <c r="H38" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="12">
         <v>106</v>
       </c>
@@ -1710,21 +1749,24 @@
       <c r="C39" s="12">
         <v>161</v>
       </c>
-      <c r="D39" s="12"/>
+      <c r="D39" s="12">
+        <v>0</v>
+      </c>
       <c r="E39" s="12">
         <v>10</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G39" s="12">
         <v>-1</v>
       </c>
-      <c r="H39" s="12"/>
+      <c r="H39" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="12">
         <v>106</v>
       </c>
@@ -1734,21 +1776,24 @@
       <c r="C40" s="12">
         <v>161</v>
       </c>
-      <c r="D40" s="12"/>
+      <c r="D40" s="12">
+        <v>0</v>
+      </c>
       <c r="E40" s="14">
         <v>25</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G40" s="12">
         <v>-1</v>
       </c>
-      <c r="H40" s="12"/>
+      <c r="H40" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="12">
         <v>106</v>
       </c>
@@ -1758,7 +1803,9 @@
       <c r="C41" s="12">
         <v>160</v>
       </c>
-      <c r="D41" s="12"/>
+      <c r="D41" s="12">
+        <v>0</v>
+      </c>
       <c r="E41" s="12">
         <v>-1</v>
       </c>
@@ -1767,12 +1814,11 @@
         <v>10</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="12">
         <v>106</v>
       </c>
@@ -1782,21 +1828,24 @@
       <c r="C42" s="12">
         <v>162</v>
       </c>
-      <c r="D42" s="12"/>
+      <c r="D42" s="12">
+        <v>0</v>
+      </c>
       <c r="E42" s="12">
         <v>20</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G42" s="12">
         <v>-1</v>
       </c>
-      <c r="H42" s="12"/>
+      <c r="H42" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="12">
         <v>106</v>
       </c>
@@ -1806,7 +1855,9 @@
       <c r="C43" s="12">
         <v>163</v>
       </c>
-      <c r="D43" s="12"/>
+      <c r="D43" s="12">
+        <v>0</v>
+      </c>
       <c r="E43" s="12">
         <v>-1</v>
       </c>
@@ -1815,12 +1866,11 @@
         <v>11</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="12">
         <v>106</v>
       </c>
@@ -1837,16 +1887,17 @@
         <v>20</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G44" s="12">
         <v>-1</v>
       </c>
-      <c r="H44" s="12"/>
+      <c r="H44" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="12">
         <v>106</v>
       </c>
@@ -1863,16 +1914,17 @@
         <v>15</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G45" s="12">
         <v>-1</v>
       </c>
-      <c r="H45" s="12"/>
+      <c r="H45" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="12">
         <v>106</v>
       </c>
@@ -1882,22 +1934,23 @@
       <c r="C46" s="12">
         <v>164</v>
       </c>
-      <c r="D46" s="12"/>
+      <c r="D46" s="12">
+        <v>0</v>
+      </c>
       <c r="E46" s="14">
         <v>25</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G46" s="12">
         <v>-1</v>
       </c>
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J20" xr:uid="{C123DADC-51CA-4B3F-9135-ACC7EB4AD809}"/>
+  <autoFilter ref="A1:I20" xr:uid="{C123DADC-51CA-4B3F-9135-ACC7EB4AD809}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
